--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cadm1-Cadm3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cadm1-Cadm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cadm3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.50328396662143</v>
+        <v>2.747564666666667</v>
       </c>
       <c r="H2">
-        <v>1.50328396662143</v>
+        <v>8.242694</v>
       </c>
       <c r="I2">
-        <v>0.2465889740909691</v>
+        <v>0.2756902755784301</v>
       </c>
       <c r="J2">
-        <v>0.2465889740909691</v>
+        <v>0.2756902755784301</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.82460108543568</v>
+        <v>2.318669</v>
       </c>
       <c r="N2">
-        <v>5.82460108543568</v>
+        <v>6.956007</v>
       </c>
       <c r="O2">
-        <v>0.7192047779298893</v>
+        <v>0.2050647402235351</v>
       </c>
       <c r="P2">
-        <v>0.7192047779298893</v>
+        <v>0.2050647402235351</v>
       </c>
       <c r="Q2">
-        <v>8.756029423701236</v>
+        <v>6.370693018095333</v>
       </c>
       <c r="R2">
-        <v>8.756029423701236</v>
+        <v>57.336237162858</v>
       </c>
       <c r="S2">
-        <v>0.1773479683510547</v>
+        <v>0.05653435474364556</v>
       </c>
       <c r="T2">
-        <v>0.1773479683510547</v>
+        <v>0.05653435474364557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.50328396662143</v>
+        <v>2.747564666666667</v>
       </c>
       <c r="H3">
-        <v>1.50328396662143</v>
+        <v>8.242694</v>
       </c>
       <c r="I3">
-        <v>0.2465889740909691</v>
+        <v>0.2756902755784301</v>
       </c>
       <c r="J3">
-        <v>0.2465889740909691</v>
+        <v>0.2756902755784301</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.27406742202449</v>
+        <v>6.464137666666666</v>
       </c>
       <c r="N3">
-        <v>2.27406742202449</v>
+        <v>19.392413</v>
       </c>
       <c r="O3">
-        <v>0.2807952220701107</v>
+        <v>0.5716929459893448</v>
       </c>
       <c r="P3">
-        <v>0.2807952220701107</v>
+        <v>0.5716929459893448</v>
       </c>
       <c r="Q3">
-        <v>3.418569094545545</v>
+        <v>17.76063625340244</v>
       </c>
       <c r="R3">
-        <v>3.418569094545545</v>
+        <v>159.845726280622</v>
       </c>
       <c r="S3">
-        <v>0.06924100573991443</v>
+        <v>0.157610185826047</v>
       </c>
       <c r="T3">
-        <v>0.06924100573991443</v>
+        <v>0.1576101858260471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.16957901363802</v>
+        <v>2.747564666666667</v>
       </c>
       <c r="H4">
-        <v>2.16957901363802</v>
+        <v>8.242694</v>
       </c>
       <c r="I4">
-        <v>0.355883701989235</v>
+        <v>0.2756902755784301</v>
       </c>
       <c r="J4">
-        <v>0.355883701989235</v>
+        <v>0.2756902755784301</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.82460108543568</v>
+        <v>0.07690566666666666</v>
       </c>
       <c r="N4">
-        <v>5.82460108543568</v>
+        <v>0.230717</v>
       </c>
       <c r="O4">
-        <v>0.7192047779298893</v>
+        <v>0.006801592015383732</v>
       </c>
       <c r="P4">
-        <v>0.7192047779298893</v>
+        <v>0.006801592015383732</v>
       </c>
       <c r="Q4">
-        <v>12.63693227777448</v>
+        <v>0.2113032923997778</v>
       </c>
       <c r="R4">
-        <v>12.63693227777448</v>
+        <v>1.901729631598</v>
       </c>
       <c r="S4">
-        <v>0.2559532588580347</v>
+        <v>0.001875132777093191</v>
       </c>
       <c r="T4">
-        <v>0.2559532588580347</v>
+        <v>0.001875132777093191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.16957901363802</v>
+        <v>2.747564666666667</v>
       </c>
       <c r="H5">
-        <v>2.16957901363802</v>
+        <v>8.242694</v>
       </c>
       <c r="I5">
-        <v>0.355883701989235</v>
+        <v>0.2756902755784301</v>
       </c>
       <c r="J5">
-        <v>0.355883701989235</v>
+        <v>0.2756902755784301</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.27406742202449</v>
+        <v>2.447297333333334</v>
       </c>
       <c r="N5">
-        <v>2.27406742202449</v>
+        <v>7.341892000000001</v>
       </c>
       <c r="O5">
-        <v>0.2807952220701107</v>
+        <v>0.2164407217717364</v>
       </c>
       <c r="P5">
-        <v>0.2807952220701107</v>
+        <v>0.2164407217717364</v>
       </c>
       <c r="Q5">
-        <v>4.933768954422248</v>
+        <v>6.724107681894224</v>
       </c>
       <c r="R5">
-        <v>4.933768954422248</v>
+        <v>60.51696913704801</v>
       </c>
       <c r="S5">
-        <v>0.09993044313120031</v>
+        <v>0.05967060223164432</v>
       </c>
       <c r="T5">
-        <v>0.09993044313120031</v>
+        <v>0.05967060223164432</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.42345163463024</v>
+        <v>0.01719833333333333</v>
       </c>
       <c r="H6">
-        <v>2.42345163463024</v>
+        <v>0.051595</v>
       </c>
       <c r="I6">
-        <v>0.3975273239197959</v>
+        <v>0.001725678494005612</v>
       </c>
       <c r="J6">
-        <v>0.3975273239197959</v>
+        <v>0.001725678494005613</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.82460108543568</v>
+        <v>2.318669</v>
       </c>
       <c r="N6">
-        <v>5.82460108543568</v>
+        <v>6.956007</v>
       </c>
       <c r="O6">
-        <v>0.7192047779298893</v>
+        <v>0.2050647402235351</v>
       </c>
       <c r="P6">
-        <v>0.7192047779298893</v>
+        <v>0.2050647402235351</v>
       </c>
       <c r="Q6">
-        <v>14.11563902156817</v>
+        <v>0.03987724235166666</v>
       </c>
       <c r="R6">
-        <v>14.11563902156817</v>
+        <v>0.358895181165</v>
       </c>
       <c r="S6">
-        <v>0.2859035507208</v>
+        <v>0.0003538758120826021</v>
       </c>
       <c r="T6">
-        <v>0.2859035507208</v>
+        <v>0.0003538758120826023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01719833333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.051595</v>
+      </c>
+      <c r="I7">
+        <v>0.001725678494005612</v>
+      </c>
+      <c r="J7">
+        <v>0.001725678494005613</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.464137666666666</v>
+      </c>
+      <c r="N7">
+        <v>19.392413</v>
+      </c>
+      <c r="O7">
+        <v>0.5716929459893448</v>
+      </c>
+      <c r="P7">
+        <v>0.5716929459893448</v>
+      </c>
+      <c r="Q7">
+        <v>0.1111723943038889</v>
+      </c>
+      <c r="R7">
+        <v>1.000551548735</v>
+      </c>
+      <c r="S7">
+        <v>0.0009865582220685246</v>
+      </c>
+      <c r="T7">
+        <v>0.0009865582220685248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01719833333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.051595</v>
+      </c>
+      <c r="I8">
+        <v>0.001725678494005612</v>
+      </c>
+      <c r="J8">
+        <v>0.001725678494005613</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.230717</v>
+      </c>
+      <c r="O8">
+        <v>0.006801592015383732</v>
+      </c>
+      <c r="P8">
+        <v>0.006801592015383732</v>
+      </c>
+      <c r="Q8">
+        <v>0.001322649290555555</v>
+      </c>
+      <c r="R8">
+        <v>0.011903843615</v>
+      </c>
+      <c r="S8">
+        <v>1.1737361065948E-05</v>
+      </c>
+      <c r="T8">
+        <v>1.1737361065948E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01719833333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.051595</v>
+      </c>
+      <c r="I9">
+        <v>0.001725678494005612</v>
+      </c>
+      <c r="J9">
+        <v>0.001725678494005613</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.447297333333334</v>
+      </c>
+      <c r="N9">
+        <v>7.341892000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.2164407217717364</v>
+      </c>
+      <c r="P9">
+        <v>0.2164407217717364</v>
+      </c>
+      <c r="Q9">
+        <v>0.04208943530444445</v>
+      </c>
+      <c r="R9">
+        <v>0.37880491774</v>
+      </c>
+      <c r="S9">
+        <v>0.0003735070987885379</v>
+      </c>
+      <c r="T9">
+        <v>0.0003735070987885379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.666297</v>
+      </c>
+      <c r="H10">
+        <v>13.998891</v>
+      </c>
+      <c r="I10">
+        <v>0.4682156243556299</v>
+      </c>
+      <c r="J10">
+        <v>0.46821562435563</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>2.318669</v>
+      </c>
+      <c r="N10">
+        <v>6.956007</v>
+      </c>
+      <c r="O10">
+        <v>0.2050647402235351</v>
+      </c>
+      <c r="P10">
+        <v>0.2050647402235351</v>
+      </c>
+      <c r="Q10">
+        <v>10.819598198693</v>
+      </c>
+      <c r="R10">
+        <v>97.37638378823699</v>
+      </c>
+      <c r="S10">
+        <v>0.09601451537708754</v>
+      </c>
+      <c r="T10">
+        <v>0.09601451537708754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.42345163463024</v>
-      </c>
-      <c r="H7">
-        <v>2.42345163463024</v>
-      </c>
-      <c r="I7">
-        <v>0.3975273239197959</v>
-      </c>
-      <c r="J7">
-        <v>0.3975273239197959</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.27406742202449</v>
-      </c>
-      <c r="N7">
-        <v>2.27406742202449</v>
-      </c>
-      <c r="O7">
-        <v>0.2807952220701107</v>
-      </c>
-      <c r="P7">
-        <v>0.2807952220701107</v>
-      </c>
-      <c r="Q7">
-        <v>5.511092411164626</v>
-      </c>
-      <c r="R7">
-        <v>5.511092411164626</v>
-      </c>
-      <c r="S7">
-        <v>0.1116237731989959</v>
-      </c>
-      <c r="T7">
-        <v>0.1116237731989959</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.666297</v>
+      </c>
+      <c r="H11">
+        <v>13.998891</v>
+      </c>
+      <c r="I11">
+        <v>0.4682156243556299</v>
+      </c>
+      <c r="J11">
+        <v>0.46821562435563</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.464137666666666</v>
+      </c>
+      <c r="N11">
+        <v>19.392413</v>
+      </c>
+      <c r="O11">
+        <v>0.5716929459893448</v>
+      </c>
+      <c r="P11">
+        <v>0.5716929459893448</v>
+      </c>
+      <c r="Q11">
+        <v>30.16358620155366</v>
+      </c>
+      <c r="R11">
+        <v>271.472275813983</v>
+      </c>
+      <c r="S11">
+        <v>0.2676755696461105</v>
+      </c>
+      <c r="T11">
+        <v>0.2676755696461106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.666297</v>
+      </c>
+      <c r="H12">
+        <v>13.998891</v>
+      </c>
+      <c r="I12">
+        <v>0.4682156243556299</v>
+      </c>
+      <c r="J12">
+        <v>0.46821562435563</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.230717</v>
+      </c>
+      <c r="O12">
+        <v>0.006801592015383732</v>
+      </c>
+      <c r="P12">
+        <v>0.006801592015383732</v>
+      </c>
+      <c r="Q12">
+        <v>0.3588646816496667</v>
+      </c>
+      <c r="R12">
+        <v>3.229782134847</v>
+      </c>
+      <c r="S12">
+        <v>0.003184611652095161</v>
+      </c>
+      <c r="T12">
+        <v>0.003184611652095162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.666297</v>
+      </c>
+      <c r="H13">
+        <v>13.998891</v>
+      </c>
+      <c r="I13">
+        <v>0.4682156243556299</v>
+      </c>
+      <c r="J13">
+        <v>0.46821562435563</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.447297333333334</v>
+      </c>
+      <c r="N13">
+        <v>7.341892000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.2164407217717364</v>
+      </c>
+      <c r="P13">
+        <v>0.2164407217717364</v>
+      </c>
+      <c r="Q13">
+        <v>11.41981620464134</v>
+      </c>
+      <c r="R13">
+        <v>102.778345841772</v>
+      </c>
+      <c r="S13">
+        <v>0.1013409276803367</v>
+      </c>
+      <c r="T13">
+        <v>0.1013409276803367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.535068333333333</v>
+      </c>
+      <c r="H14">
+        <v>7.605205</v>
+      </c>
+      <c r="I14">
+        <v>0.2543684215719344</v>
+      </c>
+      <c r="J14">
+        <v>0.2543684215719344</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>2.318669</v>
+      </c>
+      <c r="N14">
+        <v>6.956007</v>
+      </c>
+      <c r="O14">
+        <v>0.2050647402235351</v>
+      </c>
+      <c r="P14">
+        <v>0.2050647402235351</v>
+      </c>
+      <c r="Q14">
+        <v>5.877984357381666</v>
+      </c>
+      <c r="R14">
+        <v>52.90185921643499</v>
+      </c>
+      <c r="S14">
+        <v>0.05216199429071938</v>
+      </c>
+      <c r="T14">
+        <v>0.05216199429071938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.535068333333333</v>
+      </c>
+      <c r="H15">
+        <v>7.605205</v>
+      </c>
+      <c r="I15">
+        <v>0.2543684215719344</v>
+      </c>
+      <c r="J15">
+        <v>0.2543684215719344</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.464137666666666</v>
+      </c>
+      <c r="N15">
+        <v>19.392413</v>
+      </c>
+      <c r="O15">
+        <v>0.5716929459893448</v>
+      </c>
+      <c r="P15">
+        <v>0.5716929459893448</v>
+      </c>
+      <c r="Q15">
+        <v>16.38703070107389</v>
+      </c>
+      <c r="R15">
+        <v>147.483276309665</v>
+      </c>
+      <c r="S15">
+        <v>0.1454206322951188</v>
+      </c>
+      <c r="T15">
+        <v>0.1454206322951188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.535068333333333</v>
+      </c>
+      <c r="H16">
+        <v>7.605205</v>
+      </c>
+      <c r="I16">
+        <v>0.2543684215719344</v>
+      </c>
+      <c r="J16">
+        <v>0.2543684215719344</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.230717</v>
+      </c>
+      <c r="O16">
+        <v>0.006801592015383732</v>
+      </c>
+      <c r="P16">
+        <v>0.006801592015383732</v>
+      </c>
+      <c r="Q16">
+        <v>0.1949611202205555</v>
+      </c>
+      <c r="R16">
+        <v>1.754650081985</v>
+      </c>
+      <c r="S16">
+        <v>0.001730110225129432</v>
+      </c>
+      <c r="T16">
+        <v>0.001730110225129432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.535068333333333</v>
+      </c>
+      <c r="H17">
+        <v>7.605205</v>
+      </c>
+      <c r="I17">
+        <v>0.2543684215719344</v>
+      </c>
+      <c r="J17">
+        <v>0.2543684215719344</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.447297333333334</v>
+      </c>
+      <c r="N17">
+        <v>7.341892000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.2164407217717364</v>
+      </c>
+      <c r="P17">
+        <v>0.2164407217717364</v>
+      </c>
+      <c r="Q17">
+        <v>6.204065971984445</v>
+      </c>
+      <c r="R17">
+        <v>55.83659374786</v>
+      </c>
+      <c r="S17">
+        <v>0.0550556847609668</v>
+      </c>
+      <c r="T17">
+        <v>0.0550556847609668</v>
       </c>
     </row>
   </sheetData>
